--- a/biology/Botanique/Microlobius_foetidus/Microlobius_foetidus.xlsx
+++ b/biology/Botanique/Microlobius_foetidus/Microlobius_foetidus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Microlobius foetidus est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Mimosoideae, originaire d'Amérique. C'est l'unique espèce acceptée du genre Microlobius (genre monotypique).
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon The Plant List            (9 octobre 2018)[2] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (9 octobre 2018) :
 Acacia foetida (Jacq.) Kunth
 Goldmania foetida (Jacq.) Standl.
 Goldmania platycarpa Micheli
@@ -524,9 +541,43 @@
 Microlobius mimosoides C.Presl
 Mimosa foetida Jacq.
 Piptadenia foetida (Jacq.) Benth.
-Piptadenia paraguensis (Benth.) Lindm.
-Liste des sous-espèces
-Selon The Plant List            (9 octobre 2018)[2] :
+Piptadenia paraguensis (Benth.) Lindm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Microlobius_foetidus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Microlobius_foetidus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (9 octobre 2018) :
 sous-espèce Microlobius foetidus subsp. paraguensis (Benth.) M.Sousa &amp; G.Andrade</t>
         </is>
       </c>
